--- a/A02RSDS_PRICING REPORT.xlsx
+++ b/A02RSDS_PRICING REPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\ARAMIS 2024\A02RSDS\CORRECTION ATT\REDESIGN FRONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822A95F-B50D-4116-BF0D-C39740DB6F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAD46E4-48F6-476E-9D20-A4EDEF3AA5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,12 +411,6 @@
     <t>23.13 HRS</t>
   </si>
   <si>
-    <t>11.80 HRS</t>
-  </si>
-  <si>
-    <t>0.32 HRS</t>
-  </si>
-  <si>
     <t>FRC: 85C</t>
   </si>
   <si>
@@ -429,18 +423,9 @@
     <t>1.70 HRS</t>
   </si>
   <si>
-    <t>0.69 HRS</t>
-  </si>
-  <si>
-    <t>12.34 HRS</t>
-  </si>
-  <si>
     <t>FRC: 4C</t>
   </si>
   <si>
-    <t>0.10 HRS</t>
-  </si>
-  <si>
     <t>LABBRT1</t>
   </si>
   <si>
@@ -456,13 +441,28 @@
     <t>201.88 HRS</t>
   </si>
   <si>
-    <t>Generated: 06/13/2024, 04:24 PM</t>
-  </si>
-  <si>
-    <t>Pricing Date: 06/13/2024</t>
-  </si>
-  <si>
-    <t>286.01 HRS</t>
+    <t>Generated: 06/20/2024, 04:01 PM</t>
+  </si>
+  <si>
+    <t>Pricing Date: 06/20/2024</t>
+  </si>
+  <si>
+    <t>273.39 HRS</t>
+  </si>
+  <si>
+    <t>11.90 HRS</t>
+  </si>
+  <si>
+    <t>0.33 HRS</t>
+  </si>
+  <si>
+    <t>0.63 HRS</t>
+  </si>
+  <si>
+    <t>11.97 HRS</t>
+  </si>
+  <si>
+    <t>0.12 HRS</t>
   </si>
 </sst>
 </file>
@@ -574,10 +574,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -908,7 +908,7 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25">
@@ -943,7 +943,7 @@
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
@@ -1312,16 +1312,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>263.32799999999997</v>
+        <v>264.048</v>
       </c>
       <c r="E28" s="7">
-        <v>5526</v>
+        <v>5541</v>
       </c>
       <c r="F28" s="7">
         <v>0.5</v>
       </c>
       <c r="G28" s="10">
-        <v>2763</v>
+        <v>2770.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5">
@@ -1397,12 +1397,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>1944.4880000000001</v>
+        <v>1945.2080000000001</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="10">
-        <v>30027.51</v>
+        <v>30035.01</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1422,7 +1422,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F35" s="7">
         <v>32.21</v>
@@ -1439,13 +1439,13 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7">
-        <v>39242.86</v>
+        <v>39250.36</v>
       </c>
       <c r="F36" s="7">
         <v>0.1</v>
       </c>
       <c r="G36" s="10">
-        <v>4120.5</v>
+        <v>4121.29</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1469,7 +1469,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="10">
-        <v>43363.360000000001</v>
+        <v>43371.65</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="42.75">
@@ -1480,7 +1480,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F39" s="7">
         <v>145.34</v>
@@ -1497,7 +1497,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F40" s="7">
         <v>145.34</v>
@@ -1540,7 +1540,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="10">
-        <v>238232.06</v>
+        <v>238350.26</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="57">
@@ -1577,7 +1577,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="10">
-        <v>238312.06</v>
+        <v>238430.26</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5">
@@ -1588,13 +1588,13 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F47" s="7">
         <v>109.9</v>
       </c>
       <c r="G47" s="10">
-        <v>31432.48</v>
+        <v>30045.68</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1618,7 +1618,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="10">
-        <v>31432.48</v>
+        <v>30045.68</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="85.5">
@@ -1631,7 +1631,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="10">
-        <v>354693.26</v>
+        <v>353432.94</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57">
@@ -1668,7 +1668,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="10">
-        <v>440867.26</v>
+        <v>439606.94</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1701,7 +1701,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7">
-        <v>286.01</v>
+        <v>273.39</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="58" spans="1:7" ht="85.5">
       <c r="A58" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="71.25">
@@ -1756,7 +1756,7 @@
     </row>
     <row r="65" spans="1:7" ht="57">
       <c r="A65" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42.75">
@@ -2157,13 +2157,13 @@
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F90" s="7">
         <v>109.9</v>
       </c>
       <c r="G90" s="10">
-        <v>1296.3499999999999</v>
+        <v>1308.0999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2187,7 +2187,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="10">
-        <v>1296.3499999999999</v>
+        <v>1308.0999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="85.5">
@@ -2200,7 +2200,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="10">
-        <v>26738.91</v>
+        <v>26750.66</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="57">
@@ -2237,7 +2237,7 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="10">
-        <v>30090.91</v>
+        <v>30102.66</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2270,7 +2270,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="6"/>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="101" spans="1:7" ht="85.5">
       <c r="A101" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="71.25">
@@ -2325,7 +2325,7 @@
     </row>
     <row r="108" spans="1:7" ht="57">
       <c r="A108" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="42.75">
@@ -2579,13 +2579,13 @@
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F126" s="7">
         <v>109.9</v>
       </c>
       <c r="G126" s="6">
-        <v>34.75</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -2609,7 +2609,7 @@
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="6">
-        <v>34.75</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="85.5">
@@ -2622,7 +2622,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="6">
-        <v>340.95</v>
+        <v>342.7</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -2646,7 +2646,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="6">
-        <v>340.95</v>
+        <v>342.7</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -2679,7 +2679,7 @@
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="6"/>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="136" spans="1:7" ht="85.5">
       <c r="A136" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="71.25">
@@ -2729,12 +2729,12 @@
     </row>
     <row r="142" spans="1:7" ht="28.5">
       <c r="A142" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="57">
       <c r="A143" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="42.75">
@@ -2835,7 +2835,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F150" s="7">
         <v>32.21</v>
@@ -2893,7 +2893,7 @@
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F154" s="7">
         <v>145.34</v>
@@ -2910,7 +2910,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F155" s="7">
         <v>145.34</v>
@@ -2988,13 +2988,13 @@
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F161" s="7">
         <v>109.9</v>
       </c>
       <c r="G161" s="6">
-        <v>76.180000000000007</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3018,7 +3018,7 @@
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="6">
-        <v>76.180000000000007</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="85.5">
@@ -3031,7 +3031,7 @@
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="6">
-        <v>882.08</v>
+        <v>875.35</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3055,7 +3055,7 @@
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="6">
-        <v>882.08</v>
+        <v>875.35</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3088,7 +3088,7 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="6"/>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="171" spans="1:7" ht="85.5">
       <c r="A171" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="71.25">
@@ -3143,7 +3143,7 @@
     </row>
     <row r="178" spans="1:7" ht="57">
       <c r="A178" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="42.75">
@@ -3384,13 +3384,13 @@
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F195" s="7">
         <v>109.9</v>
       </c>
       <c r="G195" s="10">
-        <v>1355.65</v>
+        <v>1315.9</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -3414,7 +3414,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="10">
-        <v>1355.65</v>
+        <v>1315.9</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="85.5">
@@ -3427,7 +3427,7 @@
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="10">
-        <v>15062.93</v>
+        <v>15023.18</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="57">
@@ -3464,7 +3464,7 @@
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="10">
-        <v>16627.93</v>
+        <v>16588.18</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -3497,7 +3497,7 @@
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7">
-        <v>12.34</v>
+        <v>11.97</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="6"/>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="206" spans="1:7" ht="85.5">
       <c r="A206" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="71.25">
@@ -3547,12 +3547,12 @@
     </row>
     <row r="212" spans="1:7" ht="28.5">
       <c r="A212" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="57">
       <c r="A213" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="42.75">
@@ -3751,13 +3751,13 @@
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F228" s="7">
         <v>109.9</v>
       </c>
       <c r="G228" s="6">
-        <v>11.24</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -3781,7 +3781,7 @@
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
       <c r="G230" s="6">
-        <v>11.24</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="85.5">
@@ -3794,7 +3794,7 @@
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
       <c r="G231" s="6">
-        <v>128.4</v>
+        <v>130.83000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="42.75" customHeight="1">
@@ -3818,7 +3818,7 @@
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="G233" s="6">
-        <v>128.4</v>
+        <v>130.83000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -3851,7 +3851,7 @@
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="6"/>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="238" spans="1:7" ht="28.5" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="71.25">
@@ -3901,7 +3901,7 @@
     </row>
     <row r="244" spans="1:5" ht="57">
       <c r="A244" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="57">
@@ -3926,7 +3926,7 @@
         <v>53</v>
       </c>
       <c r="B246" s="11">
-        <v>488937.53</v>
+        <v>487646.66</v>
       </c>
       <c r="C246" s="7">
         <v>0</v>
@@ -3956,7 +3956,7 @@
     <row r="248" spans="1:5" ht="28.5" customHeight="1">
       <c r="A248" s="13"/>
       <c r="B248" s="11">
-        <v>488937.53</v>
+        <v>487646.66</v>
       </c>
       <c r="C248" s="7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7">
-        <v>3138.056</v>
+        <v>3138.7759999999998</v>
       </c>
       <c r="D251" s="7"/>
       <c r="E251" s="6"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="12">
-        <v>254276.98</v>
+        <v>254395.18</v>
       </c>
       <c r="D253" s="7"/>
       <c r="E253" s="6"/>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="12">
-        <v>34206.65</v>
+        <v>32789.300000000003</v>
       </c>
       <c r="D254" s="7"/>
       <c r="E254" s="6"/>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="12">
-        <v>488937.53</v>
+        <v>487646.66</v>
       </c>
       <c r="D255" s="7"/>
       <c r="E255" s="6"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="12">
-        <v>488937.53</v>
+        <v>487646.66</v>
       </c>
       <c r="D256" s="7"/>
       <c r="E256" s="6"/>
@@ -4065,7 +4065,7 @@
         <v>59</v>
       </c>
       <c r="C258" s="7">
-        <v>311.26</v>
+        <v>298.33999999999997</v>
       </c>
       <c r="D258" s="7"/>
       <c r="E258" s="6"/>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="261" spans="1:5" ht="85.5">
       <c r="A261" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="71.25">
@@ -4124,7 +4124,7 @@
     </row>
     <row r="267" spans="1:5" ht="57">
       <c r="A267" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="42.75">
@@ -4347,10 +4347,10 @@
         <v>48</v>
       </c>
       <c r="C282" s="7">
-        <v>5526</v>
+        <v>5541</v>
       </c>
       <c r="D282" s="7">
-        <v>263.32799999999997</v>
+        <v>264.048</v>
       </c>
       <c r="E282" s="13"/>
     </row>
@@ -4371,16 +4371,16 @@
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7">
-        <v>37716</v>
+        <v>37731</v>
       </c>
       <c r="D284" s="7">
-        <v>3137.6</v>
+        <v>3138.32</v>
       </c>
       <c r="E284" s="13"/>
     </row>
     <row r="285" spans="1:5" ht="85.5">
       <c r="A285" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="71.25">
@@ -4410,7 +4410,7 @@
     </row>
     <row r="291" spans="1:3" ht="57">
       <c r="A291" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="156.75">
@@ -4425,7 +4425,7 @@
     </row>
     <row r="294" spans="1:3" ht="85.5">
       <c r="A294" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="71.25">
@@ -4460,7 +4460,7 @@
     </row>
     <row r="301" spans="1:3" ht="57">
       <c r="A301" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42.75" customHeight="1">
@@ -4476,15 +4476,15 @@
       </c>
       <c r="B303" s="16"/>
       <c r="C303" s="17">
-        <v>8.98</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B304" s="15">
-        <v>8.98</v>
+      <c r="B304" s="14">
+        <v>8.58</v>
       </c>
       <c r="C304" s="17"/>
     </row>
@@ -4492,7 +4492,7 @@
       <c r="A305" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B305" s="15">
+      <c r="B305" s="14">
         <v>0</v>
       </c>
       <c r="C305" s="17"/>
@@ -4501,7 +4501,7 @@
       <c r="A306" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B306" s="15">
+      <c r="B306" s="14">
         <v>0</v>
       </c>
       <c r="C306" s="17"/>
@@ -4510,7 +4510,7 @@
       <c r="A307" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B307" s="15">
+      <c r="B307" s="14">
         <v>0</v>
       </c>
       <c r="C307" s="17"/>
@@ -4519,7 +4519,7 @@
       <c r="A308" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B308" s="15">
+      <c r="B308" s="14">
         <v>0</v>
       </c>
       <c r="C308" s="17"/>
@@ -4528,7 +4528,7 @@
       <c r="A309" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B309" s="15">
+      <c r="B309" s="14">
         <v>0</v>
       </c>
       <c r="C309" s="17"/>
@@ -4546,7 +4546,7 @@
       <c r="A311" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B311" s="15">
+      <c r="B311" s="14">
         <v>0</v>
       </c>
       <c r="C311" s="17"/>
@@ -4555,7 +4555,7 @@
       <c r="A312" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B312" s="15">
+      <c r="B312" s="14">
         <v>0</v>
       </c>
       <c r="C312" s="17"/>
@@ -4564,7 +4564,7 @@
       <c r="A313" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B313" s="15">
+      <c r="B313" s="14">
         <v>0</v>
       </c>
       <c r="C313" s="17"/>
@@ -4573,7 +4573,7 @@
       <c r="A314" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B314" s="15">
+      <c r="B314" s="14">
         <v>0</v>
       </c>
       <c r="C314" s="17"/>
@@ -4582,7 +4582,7 @@
       <c r="A315" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B315" s="15">
+      <c r="B315" s="14">
         <v>0</v>
       </c>
       <c r="C315" s="17"/>
@@ -4591,7 +4591,7 @@
       <c r="A316" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B316" s="15">
+      <c r="B316" s="14">
         <v>0</v>
       </c>
       <c r="C316" s="17"/>
@@ -4609,7 +4609,7 @@
       <c r="A318" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B318" s="15">
+      <c r="B318" s="14">
         <v>0</v>
       </c>
       <c r="C318" s="17"/>
@@ -4618,7 +4618,7 @@
       <c r="A319" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B319" s="15">
+      <c r="B319" s="14">
         <v>0</v>
       </c>
       <c r="C319" s="17"/>
@@ -4627,7 +4627,7 @@
       <c r="A320" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B320" s="15">
+      <c r="B320" s="14">
         <v>0</v>
       </c>
       <c r="C320" s="17"/>
@@ -4636,7 +4636,7 @@
       <c r="A321" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B321" s="15">
+      <c r="B321" s="14">
         <v>0</v>
       </c>
       <c r="C321" s="17"/>
@@ -4645,7 +4645,7 @@
       <c r="A322" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B322" s="15">
+      <c r="B322" s="14">
         <v>0</v>
       </c>
       <c r="C322" s="17"/>
@@ -4654,7 +4654,7 @@
       <c r="A323" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B323" s="15">
+      <c r="B323" s="14">
         <v>0</v>
       </c>
       <c r="C323" s="17"/>
@@ -4672,7 +4672,7 @@
       <c r="A325" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B325" s="15">
+      <c r="B325" s="14">
         <v>0</v>
       </c>
       <c r="C325" s="17"/>
@@ -4681,7 +4681,7 @@
       <c r="A326" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B326" s="15">
+      <c r="B326" s="14">
         <v>0</v>
       </c>
       <c r="C326" s="17"/>
@@ -4690,7 +4690,7 @@
       <c r="A327" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B327" s="15">
+      <c r="B327" s="14">
         <v>0</v>
       </c>
       <c r="C327" s="17"/>
@@ -4699,7 +4699,7 @@
       <c r="A328" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B328" s="15">
+      <c r="B328" s="14">
         <v>0</v>
       </c>
       <c r="C328" s="17"/>
@@ -4708,7 +4708,7 @@
       <c r="A329" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B329" s="15">
+      <c r="B329" s="14">
         <v>0</v>
       </c>
       <c r="C329" s="17"/>
@@ -4717,7 +4717,7 @@
       <c r="A330" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B330" s="15">
+      <c r="B330" s="14">
         <v>0</v>
       </c>
       <c r="C330" s="17"/>
@@ -4735,7 +4735,7 @@
       <c r="A332" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B332" s="15">
+      <c r="B332" s="14">
         <v>80</v>
       </c>
       <c r="C332" s="17"/>
@@ -4744,7 +4744,7 @@
       <c r="A333" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B333" s="15">
+      <c r="B333" s="14">
         <v>0</v>
       </c>
       <c r="C333" s="17"/>
@@ -4753,7 +4753,7 @@
       <c r="A334" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B334" s="15">
+      <c r="B334" s="14">
         <v>0</v>
       </c>
       <c r="C334" s="17"/>
@@ -4762,7 +4762,7 @@
       <c r="A335" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B335" s="15">
+      <c r="B335" s="14">
         <v>0</v>
       </c>
       <c r="C335" s="17"/>
@@ -4771,7 +4771,7 @@
       <c r="A336" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B336" s="15">
+      <c r="B336" s="14">
         <v>0</v>
       </c>
       <c r="C336" s="17"/>
@@ -4780,7 +4780,7 @@
       <c r="A337" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B337" s="15">
+      <c r="B337" s="14">
         <v>0</v>
       </c>
       <c r="C337" s="17"/>
@@ -4798,7 +4798,7 @@
       <c r="A339" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B339" s="15">
+      <c r="B339" s="14">
         <v>0</v>
       </c>
       <c r="C339" s="17"/>
@@ -4807,7 +4807,7 @@
       <c r="A340" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B340" s="15">
+      <c r="B340" s="14">
         <v>0</v>
       </c>
       <c r="C340" s="17"/>
@@ -4816,7 +4816,7 @@
       <c r="A341" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B341" s="15">
+      <c r="B341" s="14">
         <v>0</v>
       </c>
       <c r="C341" s="17"/>
@@ -4825,7 +4825,7 @@
       <c r="A342" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B342" s="15">
+      <c r="B342" s="14">
         <v>0</v>
       </c>
       <c r="C342" s="17"/>
@@ -4834,7 +4834,7 @@
       <c r="A343" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B343" s="15">
+      <c r="B343" s="14">
         <v>0</v>
       </c>
       <c r="C343" s="17"/>
@@ -4843,7 +4843,7 @@
       <c r="A344" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B344" s="15">
+      <c r="B344" s="14">
         <v>0</v>
       </c>
       <c r="C344" s="17"/>
@@ -4861,7 +4861,7 @@
       <c r="A346" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B346" s="14">
+      <c r="B346" s="15">
         <v>86174</v>
       </c>
       <c r="C346" s="18"/>
@@ -4870,7 +4870,7 @@
       <c r="A347" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B347" s="14">
+      <c r="B347" s="15">
         <v>3352</v>
       </c>
       <c r="C347" s="18"/>
@@ -4879,7 +4879,7 @@
       <c r="A348" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B348" s="15">
+      <c r="B348" s="14">
         <v>0</v>
       </c>
       <c r="C348" s="18"/>
@@ -4888,7 +4888,7 @@
       <c r="A349" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B349" s="15">
+      <c r="B349" s="14">
         <v>0</v>
       </c>
       <c r="C349" s="18"/>
@@ -4897,7 +4897,7 @@
       <c r="A350" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B350" s="14">
+      <c r="B350" s="15">
         <v>1565</v>
       </c>
       <c r="C350" s="18"/>
@@ -4906,7 +4906,7 @@
       <c r="A351" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B351" s="15">
+      <c r="B351" s="14">
         <v>0</v>
       </c>
       <c r="C351" s="18"/>
@@ -4914,7 +4914,7 @@
     <row r="352" spans="1:3" ht="28.5">
       <c r="A352" s="16"/>
       <c r="B352" s="16"/>
-      <c r="C352" s="15" t="s">
+      <c r="C352" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B353" s="16"/>
       <c r="C353" s="18">
-        <v>91179.98</v>
+        <v>91179.58</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -4943,7 +4943,7 @@
         <v>92</v>
       </c>
       <c r="B356" s="18">
-        <v>91179.98</v>
+        <v>91179.58</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -4952,7 +4952,7 @@
     </row>
     <row r="358" spans="1:7" ht="85.5">
       <c r="A358" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="15" customHeight="1">
@@ -4982,7 +4982,7 @@
     </row>
     <row r="364" spans="1:7" ht="57">
       <c r="A364" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="71.25">
@@ -5016,10 +5016,10 @@
         <v>101</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E366" s="7">
         <v>73.209999999999994</v>
@@ -5039,10 +5039,10 @@
         <v>105</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E367" s="7">
         <v>215.93</v>
@@ -5062,10 +5062,10 @@
         <v>104</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E368" s="7">
         <v>77.290000000000006</v>
@@ -5085,10 +5085,10 @@
         <v>106</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E369" s="7">
         <v>0</v>
@@ -5246,11 +5246,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="C310:C316"/>
     <mergeCell ref="A338:B338"/>
     <mergeCell ref="C338:C344"/>
     <mergeCell ref="A317:B317"/>
@@ -5266,6 +5261,11 @@
     <mergeCell ref="A353:B353"/>
     <mergeCell ref="A354:B354"/>
     <mergeCell ref="C353:C354"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="C310:C316"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
